--- a/results/JayaFeaturesTrainPrepared/Sheet1/feature_analysis.xlsx
+++ b/results/JayaFeaturesTrainPrepared/Sheet1/feature_analysis.xlsx
@@ -697,10 +697,10 @@
     <t>AHS</t>
   </si>
   <si>
+    <t>BCA</t>
+  </si>
+  <si>
     <t>BIG</t>
-  </si>
-  <si>
-    <t>BCA</t>
   </si>
   <si>
     <t>AYM</t>
@@ -7836,25 +7836,25 @@
         <v>227</v>
       </c>
       <c r="B221">
-        <v>0.1085357268120477</v>
+        <v>0.1272094434573034</v>
       </c>
       <c r="C221">
-        <v>0.5742513368983958</v>
+        <v>0.5804099821746881</v>
       </c>
       <c r="D221">
         <v>0</v>
       </c>
       <c r="E221">
-        <v>0.1084973510334396</v>
+        <v>0.1271718715453642</v>
       </c>
       <c r="F221">
-        <v>0.3494986785249825</v>
+        <v>0.3784872257414942</v>
       </c>
       <c r="G221">
         <v>0</v>
       </c>
       <c r="H221">
-        <v>0.3373505303949647</v>
+        <v>0.3375458836846896</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7862,25 +7862,25 @@
         <v>228</v>
       </c>
       <c r="B222">
-        <v>0.1283168128563379</v>
+        <v>0.1085357268120477</v>
       </c>
       <c r="C222">
-        <v>0.5804099821746881</v>
+        <v>0.5742513368983958</v>
       </c>
       <c r="D222">
         <v>0</v>
       </c>
       <c r="E222">
-        <v>0.1282792886144671</v>
+        <v>0.1084973510334396</v>
       </c>
       <c r="F222">
-        <v>0.3784872257414942</v>
+        <v>0.3494986785249825</v>
       </c>
       <c r="G222">
         <v>0</v>
       </c>
       <c r="H222">
-        <v>0.3372136585639587</v>
+        <v>0.3373505303949647</v>
       </c>
     </row>
     <row r="223" spans="1:8">
